--- a/DS/02_Excel/Jan27.xlsx
+++ b/DS/02_Excel/Jan27.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21Club_Sept_CW1\DS\02_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8942AA70-F6F3-4451-8E5E-B94BACC613BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70E9B85-6AD8-40D3-9FEA-3C0BDDA11466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concatenate" sheetId="1" r:id="rId1"/>
     <sheet name="Array Function" sheetId="2" r:id="rId2"/>
-    <sheet name="And-Or" sheetId="3" r:id="rId3"/>
+    <sheet name="And, Or, Datefunctions" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Title</t>
   </si>
@@ -125,12 +125,6 @@
     <t>Numbers</t>
   </si>
   <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>AND</t>
-  </si>
-  <si>
     <t>Concatenate</t>
   </si>
   <si>
@@ -138,14 +132,67 @@
   </si>
   <si>
     <t>Hello Mr. Panchal!</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Day (Full)</t>
+  </si>
+  <si>
+    <t>Day (Short)</t>
+  </si>
+  <si>
+    <t>Month Name (full)</t>
+  </si>
+  <si>
+    <t>Month Name (short)</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Month (short)</t>
+  </si>
+  <si>
+    <t>Year (Short)</t>
+  </si>
+  <si>
+    <t>May 2004</t>
+  </si>
+  <si>
+    <t>May Or 2004</t>
+  </si>
+  <si>
+    <t>ctrl+shift+enter</t>
+  </si>
+  <si>
+    <t>Text Function</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -173,9 +220,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>26</v>
@@ -505,7 +559,7 @@
         <v>MrAnilPanchal25</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,7 +580,7 @@
         <v>Ms. Aayushi Chopra</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -634,10 +688,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D76602-ACCA-4E9D-862B-4F79531746E4}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,6 +783,15 @@
       <c r="A14" t="s">
         <v>29</v>
       </c>
+      <c r="B14">
+        <f t="array" ref="B14">SUM(A2:A10*B2:B10)</f>
+        <v>4133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -736,153 +799,557 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E9067C1-F41A-4233-813B-A3B7DCF548F2}">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171C5439-743B-4BA9-83A2-A8799D5B818A}">
+  <dimension ref="A2:T23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>39587</v>
+      </c>
+      <c r="B4">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>39557</v>
-      </c>
-      <c r="B2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>39557</v>
-      </c>
-      <c r="B3">
+      <c r="C4">
+        <f>YEAR(A4)</f>
+        <v>2008</v>
+      </c>
+      <c r="D4" s="4">
+        <f>DAY(A4)</f>
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <f>MONTH(A4)</f>
+        <v>5</v>
+      </c>
+      <c r="F4" t="b">
+        <f>AND(E4=5, C4=2004)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <f>OR(E4=5, C4=2004)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>40277</v>
+      </c>
+      <c r="B5">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="C5">
+        <f t="shared" ref="C5:C18" si="0">YEAR(A5)</f>
+        <v>2010</v>
+      </c>
+      <c r="D5" s="4">
+        <f>DAY(A5)</f>
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E18" si="1">MONTH(A5)</f>
+        <v>4</v>
+      </c>
+      <c r="F5" t="b">
+        <f t="shared" ref="F5:F18" si="2">AND(E5=5, C5=2004)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" t="b">
+        <f t="shared" ref="G5:G18" si="3">OR(E5=5, C5=2004)</f>
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>38158</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D18" si="4">DAY(A6)</f>
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F6" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G6" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>39558</v>
       </c>
-      <c r="B4">
+      <c r="B7">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>39558</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>39559</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>39560</v>
-      </c>
-      <c r="B7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F7" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>39561</v>
+        <v>38128</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>39562</v>
+        <v>39560</v>
       </c>
       <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F9" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>39561</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F10" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>38131</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>39563</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>39564</v>
-      </c>
-      <c r="B11">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F12" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>40600</v>
+      </c>
+      <c r="B13">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>39564</v>
-      </c>
-      <c r="B12">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="D13" s="4">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F13" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>40294</v>
+      </c>
+      <c r="B14">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>39565</v>
-      </c>
-      <c r="B13">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F14" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>40660</v>
+      </c>
+      <c r="B15">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>39565</v>
-      </c>
-      <c r="B14">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>39566</v>
-      </c>
-      <c r="B15">
+      <c r="F15" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>38134</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>39931</v>
+      </c>
+      <c r="B17">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>39567</v>
-      </c>
-      <c r="B16">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="D17" s="4">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F17" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>38106</v>
+      </c>
+      <c r="B18">
         <v>7</v>
       </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F18" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I2:R2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7" xr:uid="{019F3DF4-6414-4FFE-8673-4447589125E1}">
+      <formula1>$A$3:$E$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3 T5" xr:uid="{9FAAC4F5-BC61-4C67-80A9-AC20CD523C18}">
+      <formula1>"Mon, Tue, Wed, Thu, Fri, Sat, Sun"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DS/02_Excel/Jan27.xlsx
+++ b/DS/02_Excel/Jan27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\21Club_Sept_CW1\DS\02_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70E9B85-6AD8-40D3-9FEA-3C0BDDA11466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A547434-7350-4185-AF1A-9358D30DEB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Title</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>Text Function</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -220,16 +217,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -803,12 +798,12 @@
   <dimension ref="A2:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
@@ -827,21 +822,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -859,14 +851,14 @@
       <c r="E3" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
         <v>35</v>
       </c>
       <c r="J3" t="s">
@@ -911,7 +903,7 @@
         <f>YEAR(A4)</f>
         <v>2008</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4">
         <f>DAY(A4)</f>
         <v>19</v>
       </c>
@@ -927,6 +919,50 @@
         <f>OR(E4=5, C4=2004)</f>
         <v>1</v>
       </c>
+      <c r="H4" t="str">
+        <f>IF(AND(E4=5, C4=2004), "May 2004", "Other")</f>
+        <v>Other</v>
+      </c>
+      <c r="I4" t="str">
+        <f>TEXT(A4, "yyyy")</f>
+        <v>2008</v>
+      </c>
+      <c r="J4" t="str">
+        <f>TEXT($A4, "yy")</f>
+        <v>08</v>
+      </c>
+      <c r="K4" t="str">
+        <f>TEXT($A4, "m")</f>
+        <v>5</v>
+      </c>
+      <c r="L4" t="str">
+        <f>TEXT($A4, "mm")</f>
+        <v>05</v>
+      </c>
+      <c r="M4" t="str">
+        <f>TEXT($A4, "mmm")</f>
+        <v>May</v>
+      </c>
+      <c r="N4" t="str">
+        <f>TEXT($A4, "mmmm")</f>
+        <v>May</v>
+      </c>
+      <c r="O4" t="str">
+        <f>TEXT($A4, "d")</f>
+        <v>19</v>
+      </c>
+      <c r="P4" t="str">
+        <f>TEXT($A4, "dd")</f>
+        <v>19</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>TEXT($A4, "ddd")</f>
+        <v>Mon</v>
+      </c>
+      <c r="R4" t="str">
+        <f>TEXT($A4, "dddd")</f>
+        <v>Monday</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -939,7 +975,7 @@
         <f t="shared" ref="C5:C18" si="0">YEAR(A5)</f>
         <v>2010</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <f>DAY(A5)</f>
         <v>9</v>
       </c>
@@ -955,13 +991,57 @@
         <f t="shared" ref="G5:G18" si="3">OR(E5=5, C5=2004)</f>
         <v>0</v>
       </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H18" si="4">IF(AND(E5=5, C5=2004), "May 2004", "Other")</f>
+        <v>Other</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" ref="I5:I18" si="5">TEXT(A5, "yyyy")</f>
+        <v>2010</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" ref="J5:J18" si="6">TEXT($A5, "yy")</f>
+        <v>10</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" ref="K5:K18" si="7">TEXT($A5, "m")</f>
+        <v>4</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ref="L5:L18" si="8">TEXT($A5, "mm")</f>
+        <v>04</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" ref="M5:M18" si="9">TEXT($A5, "mmm")</f>
+        <v>Apr</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N18" si="10">TEXT($A5, "mmmm")</f>
+        <v>April</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" ref="O5:O18" si="11">TEXT($A5, "d")</f>
+        <v>9</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" ref="P5:P18" si="12">TEXT($A5, "dd")</f>
+        <v>09</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q5:Q18" si="13">TEXT($A5, "ddd")</f>
+        <v>Fri</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" ref="R5:R18" si="14">TEXT($A5, "dddd")</f>
+        <v>Friday</v>
+      </c>
       <c r="T5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>38158</v>
+        <v>38140</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -970,9 +1050,9 @@
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="D6" s="4">
-        <f t="shared" ref="D6:D18" si="4">DAY(A6)</f>
-        <v>20</v>
+      <c r="D6">
+        <f t="shared" ref="D6:D18" si="15">DAY(A6)</f>
+        <v>2</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
@@ -986,6 +1066,50 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="H6" t="str">
+        <f t="shared" si="4"/>
+        <v>Other</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="8"/>
+        <v>06</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="9"/>
+        <v>Jun</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="10"/>
+        <v>June</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="12"/>
+        <v>02</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="14"/>
+        <v>Wednesday</v>
+      </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -998,8 +1122,8 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D7" s="4">
-        <f t="shared" si="4"/>
+      <c r="D7">
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="E7">
@@ -1014,8 +1138,49 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H7" t="s">
-        <v>49</v>
+      <c r="H7" t="str">
+        <f t="shared" si="4"/>
+        <v>Other</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="12"/>
+        <v>20</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="13"/>
+        <v>Sun</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="14"/>
+        <v>Sunday</v>
       </c>
       <c r="T7" t="s">
         <v>35</v>
@@ -1023,7 +1188,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>38128</v>
+        <v>38108</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1032,9 +1197,9 @@
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" si="4"/>
-        <v>21</v>
+      <c r="D8">
+        <f t="shared" si="15"/>
+        <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
@@ -1048,8 +1213,49 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>45</v>
+      <c r="H8" t="str">
+        <f t="shared" si="4"/>
+        <v>May 2004</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="9"/>
+        <v>May</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="10"/>
+        <v>May</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="12"/>
+        <v>01</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="14"/>
+        <v>Saturday</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -1063,8 +1269,8 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" si="4"/>
+      <c r="D9">
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="E9">
@@ -1079,6 +1285,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H9" t="str">
+        <f t="shared" si="4"/>
+        <v>Other</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="11"/>
+        <v>22</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="12"/>
+        <v>22</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="13"/>
+        <v>Tue</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="14"/>
+        <v>Tuesday</v>
+      </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1091,8 +1341,8 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D10" s="4">
-        <f t="shared" si="4"/>
+      <c r="D10">
+        <f t="shared" si="15"/>
         <v>23</v>
       </c>
       <c r="E10">
@@ -1107,6 +1357,50 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H10" t="str">
+        <f t="shared" si="4"/>
+        <v>Other</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="11"/>
+        <v>23</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="12"/>
+        <v>23</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="14"/>
+        <v>Wednesday</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1119,8 +1413,8 @@
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" si="4"/>
+      <c r="D11">
+        <f t="shared" si="15"/>
         <v>24</v>
       </c>
       <c r="E11">
@@ -1135,10 +1429,54 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="H11" t="str">
+        <f t="shared" si="4"/>
+        <v>May 2004</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="9"/>
+        <v>May</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="10"/>
+        <v>May</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="12"/>
+        <v>24</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="13"/>
+        <v>Mon</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="14"/>
+        <v>Monday</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>39563</v>
+        <v>39757</v>
       </c>
       <c r="B12">
         <v>66</v>
@@ -1147,13 +1485,13 @@
         <f t="shared" si="0"/>
         <v>2008</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" si="4"/>
-        <v>25</v>
+      <c r="D12">
+        <f t="shared" si="15"/>
+        <v>5</v>
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F12" t="b">
         <f t="shared" si="2"/>
@@ -1162,6 +1500,50 @@
       <c r="G12" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v>Other</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="5"/>
+        <v>2008</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="6"/>
+        <v>08</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="9"/>
+        <v>Nov</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="10"/>
+        <v>November</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="12"/>
+        <v>05</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="R12" t="str">
+        <f t="shared" si="14"/>
+        <v>Wednesday</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -1175,8 +1557,8 @@
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="D13" s="4">
-        <f t="shared" si="4"/>
+      <c r="D13">
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="E13">
@@ -1191,10 +1573,54 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H13" t="str">
+        <f t="shared" si="4"/>
+        <v>Other</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="5"/>
+        <v>2011</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="8"/>
+        <v>02</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="9"/>
+        <v>Feb</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="10"/>
+        <v>February</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="12"/>
+        <v>26</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="13"/>
+        <v>Sat</v>
+      </c>
+      <c r="R13" t="str">
+        <f t="shared" si="14"/>
+        <v>Saturday</v>
+      </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>40294</v>
+        <v>40274</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1203,9 +1629,9 @@
         <f t="shared" si="0"/>
         <v>2010</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" si="4"/>
-        <v>26</v>
+      <c r="D14">
+        <f t="shared" si="15"/>
+        <v>6</v>
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
@@ -1219,10 +1645,54 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v>Other</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="5"/>
+        <v>2010</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="12"/>
+        <v>06</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="13"/>
+        <v>Tue</v>
+      </c>
+      <c r="R14" t="str">
+        <f t="shared" si="14"/>
+        <v>Tuesday</v>
+      </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>40660</v>
+        <v>40843</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1231,13 +1701,13 @@
         <f t="shared" si="0"/>
         <v>2011</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="4"/>
+      <c r="D15">
+        <f t="shared" si="15"/>
         <v>27</v>
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F15" t="b">
         <f t="shared" si="2"/>
@@ -1247,10 +1717,54 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v>Other</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="5"/>
+        <v>2011</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="9"/>
+        <v>Oct</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="10"/>
+        <v>October</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="12"/>
+        <v>27</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="13"/>
+        <v>Thu</v>
+      </c>
+      <c r="R15" t="str">
+        <f t="shared" si="14"/>
+        <v>Thursday</v>
+      </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>38134</v>
+        <v>38114</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -1259,9 +1773,9 @@
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="D16" s="4">
-        <f t="shared" si="4"/>
-        <v>27</v>
+      <c r="D16">
+        <f t="shared" si="15"/>
+        <v>7</v>
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
@@ -1275,10 +1789,54 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v>May 2004</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="8"/>
+        <v>05</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="9"/>
+        <v>May</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="10"/>
+        <v>May</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="12"/>
+        <v>07</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="13"/>
+        <v>Fri</v>
+      </c>
+      <c r="R16" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>39931</v>
+        <v>39911</v>
       </c>
       <c r="B17">
         <v>13</v>
@@ -1287,9 +1845,9 @@
         <f t="shared" si="0"/>
         <v>2009</v>
       </c>
-      <c r="D17" s="4">
-        <f t="shared" si="4"/>
-        <v>28</v>
+      <c r="D17">
+        <f t="shared" si="15"/>
+        <v>8</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
@@ -1303,10 +1861,54 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" t="str">
+        <f t="shared" si="4"/>
+        <v>Other</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="5"/>
+        <v>2009</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="6"/>
+        <v>09</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="8"/>
+        <v>04</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="9"/>
+        <v>Apr</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="10"/>
+        <v>April</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="12"/>
+        <v>08</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="R17" t="str">
+        <f t="shared" si="14"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>38106</v>
+        <v>38350</v>
       </c>
       <c r="B18">
         <v>7</v>
@@ -1315,13 +1917,13 @@
         <f t="shared" si="0"/>
         <v>2004</v>
       </c>
-      <c r="D18" s="4">
-        <f t="shared" si="4"/>
+      <c r="D18">
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F18" t="b">
         <f t="shared" si="2"/>
@@ -1331,11 +1933,55 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" t="str">
+        <f t="shared" si="4"/>
+        <v>Other</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="5"/>
+        <v>2004</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="6"/>
+        <v>04</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="9"/>
+        <v>Dec</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="10"/>
+        <v>December</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="13"/>
+        <v>Wed</v>
+      </c>
+      <c r="R18" t="str">
+        <f t="shared" si="14"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
   </sheetData>
